--- a/reports/miami-dade_fl_report/county_report.xlsx
+++ b/reports/miami-dade_fl_report/county_report.xlsx
@@ -371,7 +371,7 @@
     <t>488510</t>
   </si>
   <si>
-    <t>Time to Generate Report: 0m, 28s</t>
+    <t>Time to Generate Report: 0m, 20s</t>
   </si>
 </sst>
 </file>
